--- a/server/templates/base_template.xlsx
+++ b/server/templates/base_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23520" windowHeight="12300" tabRatio="789"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -6998,7 +6998,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9f3c6a2f-69b6-4f3d-913c-584f51d1847e}" type="VALUE">
+                    <a:fld id="{0e2ba105-0b5c-4dc2-b5d7-93682289b315}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                   </a:p>
@@ -7881,7 +7881,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39eea449-86d3-4d60-a50a-0cc8b7d9a9ba}" type="VALUE">
+                    <a:fld id="{b09df628-8df9-48fb-afcf-03f6e4a4f47d}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                   </a:p>
@@ -14231,7 +14231,7 @@
   <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="15" customHeight="1"/>
